--- a/results/df_signals.xlsx
+++ b/results/df_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_Github_Repository\Trading_Strategies\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106E3BEC-A3A5-4380-A389-58282F8D71B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F6B81-B3D5-49B5-AE25-4BA22A844AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="1845" windowWidth="21165" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="21660" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSI_Signals" sheetId="1" r:id="rId1"/>

--- a/results/df_signals.xlsx
+++ b/results/df_signals.xlsx
@@ -8,27 +8,305 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07_Github_Repository\Trading_Strategies\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F6B81-B3D5-49B5-AE25-4BA22A844AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1346C8-E7FE-4675-A4CD-D01D58DCDDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="21660" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-23235" yWindow="630" windowWidth="21660" windowHeight="14085" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RSI_Signals" sheetId="1" r:id="rId1"/>
+    <sheet name="RSI_Signals_Today" sheetId="1" r:id="rId1"/>
+    <sheet name="RSI_Signals_Yesterday" sheetId="2" r:id="rId2"/>
+    <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RSI_Signals!$A$1:$B$504</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RSI_Signals_Today!$A$1:$B$504</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>tic</t>
   </si>
   <si>
     <t>signal</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
+    <t>AMCR</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>BBWI</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>DXC</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>EQR</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>GEHC</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>JKHY</t>
+  </si>
+  <si>
+    <t>JNPR</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>KIM</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>LKQ</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>MKC</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>NCLH</t>
+  </si>
+  <si>
+    <t>NDSN</t>
+  </si>
+  <si>
+    <t>NEE</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+  <si>
+    <t>PODD</t>
+  </si>
+  <si>
+    <t>POOL</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>QRVO</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>SWK</t>
+  </si>
+  <si>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>TFX</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>WYNN</t>
+  </si>
+  <si>
+    <t>XEL</t>
+  </si>
+  <si>
+    <t>XRAY</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>SEDG</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -430,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +724,768 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9BAFB5-8F35-41EA-92B8-A5A1E8805B39}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5EA1A7-FED2-402B-9E14-70DB5F3F545C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
